--- a/AAII_Financials/Yearly/BESP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BESP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>BESP</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>117600</v>
+        <v>200200</v>
       </c>
       <c r="E8" s="3">
         <v>236600</v>
@@ -738,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>127400</v>
+        <v>93400</v>
       </c>
       <c r="E9" s="3">
         <v>119200</v>
@@ -765,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-9800</v>
+        <v>106800</v>
       </c>
       <c r="E10" s="3">
         <v>117500</v>
@@ -859,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-4100</v>
+        <v>10000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -923,7 +923,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>49200</v>
+        <v>125700</v>
       </c>
       <c r="E17" s="3">
         <v>142600</v>
@@ -950,7 +950,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>68500</v>
+        <v>74500</v>
       </c>
       <c r="E18" s="3">
         <v>94000</v>
@@ -990,7 +990,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-84200</v>
+        <v>-21800</v>
       </c>
       <c r="E20" s="3">
         <v>-5600</v>
@@ -1017,7 +1017,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-13500</v>
+        <v>54900</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -1071,7 +1071,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15800</v>
+        <v>52700</v>
       </c>
       <c r="E23" s="3">
         <v>88400</v>
@@ -1151,8 +1151,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>54700</v>
       </c>
       <c r="E26" s="3">
         <v>83900</v>
@@ -1178,8 +1178,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>39800</v>
       </c>
       <c r="E27" s="3">
         <v>66900</v>
@@ -1314,7 +1314,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>84200</v>
+        <v>21800</v>
       </c>
       <c r="E32" s="3">
         <v>5600</v>
@@ -1340,8 +1340,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>39800</v>
       </c>
       <c r="E33" s="3">
         <v>66900</v>
@@ -1394,8 +1394,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>39800</v>
       </c>
       <c r="E35" s="3">
         <v>66900</v>
@@ -1534,7 +1534,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2709100</v>
+        <v>113800</v>
       </c>
       <c r="E43" s="3">
         <v>105900</v>
@@ -1642,7 +1642,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>166200</v>
+        <v>2761500</v>
       </c>
       <c r="E47" s="3">
         <v>2874600</v>
@@ -1910,8 +1910,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>463200</v>
       </c>
       <c r="E58" s="3">
         <v>646900</v>
@@ -1992,7 +1992,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1654700</v>
+        <v>1686000</v>
       </c>
       <c r="E61" s="3">
         <v>1832500</v>
@@ -2221,7 +2221,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>209300</v>
       </c>
       <c r="E70" s="3">
         <v>209100</v>
@@ -2468,8 +2468,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>39800</v>
       </c>
       <c r="E81" s="3">
         <v>66900</v>
